--- a/00_data_raw/Rohdaten_Matrix_Leitungen.xlsx
+++ b/00_data_raw/Rohdaten_Matrix_Leitungen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{C191C870-EEA7-4F16-B97E-5C0A09E89596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="3150" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rohdaten_Leitungen" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
